--- a/target/test-classes/TestData/Qual_Initiation.xlsx
+++ b/target/test-classes/TestData/Qual_Initiation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vijay.Jyothula\eclipse-workspace\KaroSBC\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FA8B04-8072-4B65-81E2-27D267D73387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7667B7-9F95-45B1-AEBF-A5B170FCC73D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
